--- a/Data Processing/Data Plots.xlsx
+++ b/Data Processing/Data Plots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34EF1F-E834-3646-BEE8-3CD9BB5A48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA07333D-12EF-C440-875E-B143DD5324F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="24200" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
@@ -5955,7 +5955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
